--- a/Assets/TestResults/PerlinWormPathGenerationTest.xlsx
+++ b/Assets/TestResults/PerlinWormPathGenerationTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b012521i\Documents\GitHub\Procedural-Voxel-Terrain\Assets\TestResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Procedural-Voxel-Terrain\Assets\TestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFDC183-D54E-40F4-9C55-EBC7FEB1D03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2ADDFA5-4171-45BD-A060-4742DB6EF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerlinWormPathGenerationTest" sheetId="1" r:id="rId1"/>
@@ -617,6 +617,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph of Elapsed Time (ms) in</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Ascending Order</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3776,6 +3806,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Elapsed Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
